--- a/dashboard/csv_files/raw_data_dhkhdl15a.xlsx
+++ b/dashboard/csv_files/raw_data_dhkhdl15a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fast_and_furious_viz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vis-for-teacher\dashboard\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF9F72E-43C9-4A40-BDC4-06E2A8479979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7865C4A-7E68-475F-B020-4651CCB86EF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2328,6 +2328,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2349,15 +2352,6 @@
     <xf numFmtId="0" fontId="21" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2366,6 +2360,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2989,7 +2989,7 @@
   <dimension ref="A1:CM62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2998,16 +2998,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:91" ht="91.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -3250,23 +3250,23 @@
       <c r="CF1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="CG1" s="26" t="s">
+      <c r="CG1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="CH1" s="27"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27"/>
-      <c r="CK1" s="28"/>
-      <c r="CL1" s="29" t="s">
+      <c r="CH1" s="28"/>
+      <c r="CI1" s="28"/>
+      <c r="CJ1" s="28"/>
+      <c r="CK1" s="29"/>
+      <c r="CL1" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="CM1" s="29"/>
+      <c r="CM1" s="22"/>
     </row>
     <row r="2" spans="1:91" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="16" t="s">
         <v>127</v>
       </c>
@@ -12834,27 +12834,27 @@
     <row r="2" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -12874,7 +12874,7 @@
     </row>
     <row r="7" spans="1:19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:19" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -12916,20 +12916,20 @@
       <c r="N8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31" t="s">
+      <c r="R8" s="34"/>
+      <c r="S8" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -12975,7 +12975,7 @@
       <c r="R9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S9" s="31"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -13041,52 +13041,47 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O13" s="32" t="s">
+      <c r="O13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="O14" s="33" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="O14" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="O18" s="34" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="O18" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="A4:S4"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="Q8:R8"/>
@@ -13095,6 +13090,11 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
